--- a/rhla_analysis/rhla1_6_zipf_result/result.xlsx
+++ b/rhla_analysis/rhla1_6_zipf_result/result.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10.05161460018441</v>
+        <v>10.0516146001844</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.703529320397319</v>
+        <v>7.703529320397303</v>
       </c>
     </row>
     <row r="4">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.02901979530619</v>
+        <v>10.02901979530621</v>
       </c>
     </row>
     <row r="6">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.967553644875462</v>
+        <v>8.967553644875464</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20.90678828123194</v>
+        <v>20.90678828123189</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>22.16849722367494</v>
+        <v>22.16849722367491</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.97978062496134</v>
+        <v>21.9797806249613</v>
       </c>
     </row>
     <row r="11">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>20.55830759558188</v>
+        <v>20.55830759558197</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29.06811654432695</v>
+        <v>29.068116544327</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>30.89406742206925</v>
+        <v>30.89406742206929</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>30.1269799454667</v>
+        <v>30.12697994546672</v>
       </c>
     </row>
     <row r="16">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>20.14159048480614</v>
+        <v>20.14159048480606</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>44.30401363468072</v>
+        <v>44.30401363468071</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.77517787478409</v>
+        <v>46.77517787478395</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.59159643671806</v>
+        <v>46.59159643671797</v>
       </c>
     </row>
     <row r="21">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>23.15735048227719</v>
+        <v>23.15735048227718</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>51.01577497294996</v>
+        <v>51.0157749729498</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>49.48822887945077</v>
+        <v>49.48822887945069</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>48.39622526794996</v>
+        <v>48.39622526794979</v>
       </c>
     </row>
     <row r="26">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>26.11958577398594</v>
+        <v>26.11958577398589</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>37.60257377495252</v>
+        <v>37.6025737749526</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>38.97382582949955</v>
+        <v>38.97382582949952</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>34.51761030928326</v>
+        <v>34.51761030928322</v>
       </c>
     </row>
     <row r="31">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>44.56801059630929</v>
+        <v>44.56801059630971</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>57.86097117873103</v>
+        <v>57.86097117873098</v>
       </c>
     </row>
     <row r="34">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.35126711205837</v>
+        <v>79.35126711205851</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>73.45675513996935</v>
+        <v>73.45675513996932</v>
       </c>
     </row>
     <row r="36">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>26.64821981910771</v>
+        <v>26.64821981910793</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>85.90018478304586</v>
+        <v>85.90018478304617</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>86.34537130068415</v>
+        <v>86.34537130068445</v>
       </c>
     </row>
     <row r="40">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>86.02915215409537</v>
+        <v>86.02915215409561</v>
       </c>
     </row>
     <row r="41">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>51.30407830038669</v>
+        <v>51.30407830038717</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>113.5198559386044</v>
+        <v>113.5198559386046</v>
       </c>
     </row>
     <row r="44">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>115.2497109789196</v>
+        <v>115.2497109789198</v>
       </c>
     </row>
     <row r="45">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>108.898439914694</v>
+        <v>108.8984399146941</v>
       </c>
     </row>
     <row r="46">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>51.69547877019305</v>
+        <v>51.69547877019286</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>115.8625174119128</v>
+        <v>115.8625174119124</v>
       </c>
     </row>
     <row r="49">
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>125.4496367825651</v>
+        <v>125.4496367825648</v>
       </c>
     </row>
     <row r="50">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>122.2755278724855</v>
+        <v>122.2755278724852</v>
       </c>
     </row>
     <row r="51">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>22.1122281938454</v>
+        <v>22.11222819384549</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>108.192443759183</v>
+        <v>108.1924437591831</v>
       </c>
     </row>
     <row r="54">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>112.0431449172484</v>
+        <v>112.0431449172483</v>
       </c>
     </row>
     <row r="56">
